--- a/test/config/test1.xlsx
+++ b/test/config/test1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="11925"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>gameId</t>
   </si>
@@ -89,16 +89,31 @@
     <t>ps_25_cookies</t>
   </si>
   <si>
+    <t>https://img.dyn123.com/images/slot-images/PS/25cookieshitthebonus.png</t>
+  </si>
+  <si>
     <t>wolf_land</t>
+  </si>
+  <si>
+    <t>https://img.dyn123.com/images/slot-images/PS/wolflandholdandwin.png</t>
   </si>
   <si>
     <t>sherwood_coins</t>
   </si>
   <si>
+    <t>https://img.dyn123.com/images/slot-images/PS/sherwoodcoinsholdandwin.png</t>
+  </si>
+  <si>
     <t>merry_giftmas</t>
   </si>
   <si>
+    <t>https://img.dyn123.com/images/slot-images/PS/merrygiftmasholdandwin.png</t>
+  </si>
+  <si>
     <t>mammoth_peak</t>
+  </si>
+  <si>
+    <t>https://img.dyn123.com/images/slot-images/PS/mammothpeakholdandwin.png</t>
   </si>
 </sst>
 </file>
@@ -747,7 +762,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -760,6 +775,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -846,9 +864,6 @@
           <cell r="D1" t="str">
             <v>name_kr</v>
           </cell>
-          <cell r="E1" t="str">
-            <v>imgUrl</v>
-          </cell>
         </row>
         <row r="2">
           <cell r="A2" t="str">
@@ -861,11 +876,6 @@
             <v>25 Cookies: Hit the Bonus</v>
           </cell>
         </row>
-        <row r="2">
-          <cell r="E2" t="str">
-            <v>https://img.dyn123.com/images/slot-images/PS/25cookieshitthebonus.png</v>
-          </cell>
-        </row>
         <row r="3">
           <cell r="A3" t="str">
             <v>wolf_land</v>
@@ -877,11 +887,6 @@
             <v>Wolf Land: Hold and Win</v>
           </cell>
         </row>
-        <row r="3">
-          <cell r="E3" t="str">
-            <v>https://img.dyn123.com/images/slot-images/PS/wolflandholdandwin.png</v>
-          </cell>
-        </row>
         <row r="4">
           <cell r="A4" t="str">
             <v>sherwood_coins</v>
@@ -893,11 +898,6 @@
             <v>Sherwood Coins: Hold and Win</v>
           </cell>
         </row>
-        <row r="4">
-          <cell r="E4" t="str">
-            <v>https://img.dyn123.com/images/slot-images/PS/sherwoodcoinsholdandwin.png</v>
-          </cell>
-        </row>
         <row r="5">
           <cell r="A5" t="str">
             <v>merry_giftmas</v>
@@ -909,11 +909,6 @@
             <v>Merry Giftmas: Hold and Win</v>
           </cell>
         </row>
-        <row r="5">
-          <cell r="E5" t="str">
-            <v>https://img.dyn123.com/images/slot-images/PS/merrygiftmasholdandwin.png</v>
-          </cell>
-        </row>
         <row r="6">
           <cell r="A6" t="str">
             <v>mammoth_peak</v>
@@ -925,11 +920,6 @@
             <v>Mammoth Peak: Hold and Win</v>
           </cell>
         </row>
-        <row r="6">
-          <cell r="E6" t="str">
-            <v>https://img.dyn123.com/images/slot-images/PS/mammothpeakholdandwin.png</v>
-          </cell>
-        </row>
         <row r="7">
           <cell r="A7" t="str">
             <v>light_clovers</v>
@@ -941,11 +931,6 @@
             <v>Lightning Clovers - Hit the Bonus™</v>
           </cell>
         </row>
-        <row r="7">
-          <cell r="E7" t="str">
-            <v>https://img.dyn123.com/images/slot-images/PS/lightclovershitthebonus.png</v>
-          </cell>
-        </row>
         <row r="8">
           <cell r="A8" t="str">
             <v>jingle_coins</v>
@@ -957,11 +942,6 @@
             <v>Jingle Coins: Hold and Win</v>
           </cell>
         </row>
-        <row r="8">
-          <cell r="E8" t="str">
-            <v>https://img.dyn123.com/images/slot-images/PS/jinglecoinsholdandwin.png</v>
-          </cell>
-        </row>
         <row r="9">
           <cell r="A9" t="str">
             <v>hit_the_bank</v>
@@ -973,11 +953,6 @@
             <v>Hit the Bank: Hold and Win</v>
           </cell>
         </row>
-        <row r="9">
-          <cell r="E9" t="str">
-            <v>https://img.dyn123.com/images/slot-images/PS/hitthebankholdandwin.png</v>
-          </cell>
-        </row>
         <row r="10">
           <cell r="A10" t="str">
             <v>giza_nights</v>
@@ -989,11 +964,6 @@
             <v>Giza Nights: Hold and Win</v>
           </cell>
         </row>
-        <row r="10">
-          <cell r="E10" t="str">
-            <v>https://img.dyn123.com/images/slot-images/PS/gizanightsholdandwin.png</v>
-          </cell>
-        </row>
         <row r="11">
           <cell r="A11" t="str">
             <v>empire_gold</v>
@@ -1005,11 +975,6 @@
             <v>Empire Gold: Hold and Win</v>
           </cell>
         </row>
-        <row r="11">
-          <cell r="E11" t="str">
-            <v>https://img.dyn123.com/images/slot-images/PS/empiregoldholdandwin.png</v>
-          </cell>
-        </row>
         <row r="12">
           <cell r="A12" t="str">
             <v>crystal_land_2</v>
@@ -1021,11 +986,6 @@
             <v>Crystal Land 2</v>
           </cell>
         </row>
-        <row r="12">
-          <cell r="E12" t="str">
-            <v>https://img.dyn123.com/images/slot-images/PS/crystalland2.png</v>
-          </cell>
-        </row>
         <row r="13">
           <cell r="A13" t="str">
             <v>blazing_wins</v>
@@ -1037,11 +997,6 @@
             <v>Blazing Wins: 5 lines</v>
           </cell>
         </row>
-        <row r="13">
-          <cell r="E13" t="str">
-            <v>https://img.dyn123.com/images/slot-images/PS/blazingwins5lines.png</v>
-          </cell>
-        </row>
         <row r="14">
           <cell r="A14" t="str">
             <v>777sizzling_wins</v>
@@ -1053,11 +1008,6 @@
             <v>777 Sizzling Wins: 5 lines</v>
           </cell>
         </row>
-        <row r="14">
-          <cell r="E14" t="str">
-            <v>https://img.dyn123.com/images/slot-images/PS/777sizzlingwins5lines.png</v>
-          </cell>
-        </row>
         <row r="15">
           <cell r="A15" t="str">
             <v>pearl_ocean</v>
@@ -1069,11 +1019,6 @@
             <v>Pearl Ocean: Hold and Win</v>
           </cell>
         </row>
-        <row r="15">
-          <cell r="E15" t="str">
-            <v>https://img.dyn123.com/images/slot-images/PS/pearloceanholdandwin.png</v>
-          </cell>
-        </row>
         <row r="16">
           <cell r="A16" t="str">
             <v>fire_temple</v>
@@ -1085,11 +1030,6 @@
             <v>Fire Temple: Hold and Win</v>
           </cell>
         </row>
-        <row r="16">
-          <cell r="E16" t="str">
-            <v>https://img.dyn123.com/images/slot-images/PS/firetempleholdandwin.png</v>
-          </cell>
-        </row>
         <row r="17">
           <cell r="A17" t="str">
             <v>energy_joker</v>
@@ -1101,11 +1041,6 @@
             <v>Energy Joker: Hold and Win</v>
           </cell>
         </row>
-        <row r="17">
-          <cell r="E17" t="str">
-            <v>https://img.dyn123.com/images/slot-images/PS/energyjokerholdandwin.png</v>
-          </cell>
-        </row>
         <row r="18">
           <cell r="A18" t="str">
             <v>thunder_coins</v>
@@ -1117,11 +1052,6 @@
             <v>Thunder Coins: Hold and Win</v>
           </cell>
         </row>
-        <row r="18">
-          <cell r="E18" t="str">
-            <v>https://img.dyn123.com/images/slot-images/PS/thundercoinsholdandwin.png</v>
-          </cell>
-        </row>
         <row r="19">
           <cell r="A19" t="str">
             <v>3pots_extra</v>
@@ -1133,11 +1063,6 @@
             <v>3 Pots Riches Extra: Hold and Win</v>
           </cell>
         </row>
-        <row r="19">
-          <cell r="E19" t="str">
-            <v>https://img.dyn123.com/images/slot-images/PS/3potsrichesextraholdandwin.png</v>
-          </cell>
-        </row>
         <row r="20">
           <cell r="A20" t="str">
             <v>power_crown</v>
@@ -1149,11 +1074,6 @@
             <v>Power Crown: Hold and Win</v>
           </cell>
         </row>
-        <row r="20">
-          <cell r="E20" t="str">
-            <v>https://img.dyn123.com/images/slot-images/PS/powercrownholdandwin.png</v>
-          </cell>
-        </row>
         <row r="21">
           <cell r="A21" t="str">
             <v>pink_joker</v>
@@ -1165,11 +1085,6 @@
             <v>Pink Joker: Hold and Win</v>
           </cell>
         </row>
-        <row r="21">
-          <cell r="E21" t="str">
-            <v>https://img.dyn123.com/images/slot-images/PS/pinjokerholdandwin.png</v>
-          </cell>
-        </row>
         <row r="22">
           <cell r="A22" t="str">
             <v>3_pirate_barrels</v>
@@ -1181,11 +1096,6 @@
             <v>3 Pirate Barrels: Hold and Win</v>
           </cell>
         </row>
-        <row r="22">
-          <cell r="E22" t="str">
-            <v>https://img.dyn123.com/images/slot-images/PS/3piratebarrelsholdandwin.png</v>
-          </cell>
-        </row>
         <row r="23">
           <cell r="A23" t="str">
             <v>royal_joker</v>
@@ -1197,11 +1107,6 @@
             <v>Royal Joker: Hold and Win</v>
           </cell>
         </row>
-        <row r="23">
-          <cell r="E23" t="str">
-            <v>https://img.dyn123.com/images/slot-images/PS/royaljokerholdandwin.png</v>
-          </cell>
-        </row>
         <row r="24">
           <cell r="A24" t="str">
             <v>royal_fort</v>
@@ -1213,11 +1118,6 @@
             <v>Royal Fortunator: Hold and Win</v>
           </cell>
         </row>
-        <row r="24">
-          <cell r="E24" t="str">
-            <v>https://img.dyn123.com/images/slot-images/PS/royalfortunatorholdandwin.png</v>
-          </cell>
-        </row>
         <row r="25">
           <cell r="A25" t="str">
             <v>pirate_chest</v>
@@ -1229,11 +1129,6 @@
             <v>Pirate Chest: Hold and Win</v>
           </cell>
         </row>
-        <row r="25">
-          <cell r="E25" t="str">
-            <v>https://img.dyn123.com/images/slot-images/PS/piratechestholdandwin.png</v>
-          </cell>
-        </row>
         <row r="26">
           <cell r="A26" t="str">
             <v>piggy_power</v>
@@ -1245,11 +1140,6 @@
             <v>Piggy Power: Hit the Bonus</v>
           </cell>
         </row>
-        <row r="26">
-          <cell r="E26" t="str">
-            <v>https://img.dyn123.com/images/slot-images/PS/piggypowerhitthebonus.png</v>
-          </cell>
-        </row>
         <row r="27">
           <cell r="A27" t="str">
             <v>fire_coins</v>
@@ -1261,11 +1151,6 @@
             <v>Fire Coins: Hold and Win</v>
           </cell>
         </row>
-        <row r="27">
-          <cell r="E27" t="str">
-            <v>https://img.dyn123.com/images/slot-images/PS/firecoinsholdandwin.png</v>
-          </cell>
-        </row>
         <row r="28">
           <cell r="A28" t="str">
             <v>energy_coins</v>
@@ -1277,11 +1162,6 @@
             <v>Energy Coins: Hold and Win</v>
           </cell>
         </row>
-        <row r="28">
-          <cell r="E28" t="str">
-            <v>https://img.dyn123.com/images/slot-images/PS/energycoinsholdandwin.png</v>
-          </cell>
-        </row>
         <row r="29">
           <cell r="A29" t="str">
             <v>diamonds_power</v>
@@ -1293,11 +1173,6 @@
             <v>Diamonds Power: Hold and Win</v>
           </cell>
         </row>
-        <row r="29">
-          <cell r="E29" t="str">
-            <v>https://img.dyn123.com/images/slot-images/PS/diamondspowerholdandwin.png</v>
-          </cell>
-        </row>
         <row r="30">
           <cell r="A30" t="str">
             <v>crown_n_diamonds</v>
@@ -1309,11 +1184,6 @@
             <v>Crown and Diamonds: Hold and Win</v>
           </cell>
         </row>
-        <row r="30">
-          <cell r="E30" t="str">
-            <v>https://img.dyn123.com/images/slot-images/PS/crownanddiamondsholdandwin.png</v>
-          </cell>
-        </row>
         <row r="31">
           <cell r="A31" t="str">
             <v>scharged_clovers</v>
@@ -1325,11 +1195,6 @@
             <v>Supercharged Clovers: Hold and Win</v>
           </cell>
         </row>
-        <row r="31">
-          <cell r="E31" t="str">
-            <v>https://img.dyn123.com/images/slot-images/PS/superchargedcloversholdandwin.png</v>
-          </cell>
-        </row>
         <row r="32">
           <cell r="A32" t="str">
             <v>sunny_fruits_2</v>
@@ -1341,11 +1206,6 @@
             <v>Sunny Fruits 2: Hold and Win</v>
           </cell>
         </row>
-        <row r="32">
-          <cell r="E32" t="str">
-            <v>https://img.dyn123.com/images/slot-images/PS/sunnyfruits2holdandwin.png</v>
-          </cell>
-        </row>
         <row r="33">
           <cell r="A33" t="str">
             <v>coin_strike</v>
@@ -1357,11 +1217,6 @@
             <v>Coin Strike: Hold and Win</v>
           </cell>
         </row>
-        <row r="33">
-          <cell r="E33" t="str">
-            <v>https://img.dyn123.com/images/slot-images/PS/coinstrikeholdandwin.png</v>
-          </cell>
-        </row>
         <row r="34">
           <cell r="A34" t="str">
             <v>clover_charm</v>
@@ -1373,11 +1228,6 @@
             <v>Clover Charm: Hit the Bonus</v>
           </cell>
         </row>
-        <row r="34">
-          <cell r="E34" t="str">
-            <v>https://img.dyn123.com/images/slot-images/PS/clovercharmhitthebonus.png</v>
-          </cell>
-        </row>
         <row r="35">
           <cell r="A35" t="str">
             <v>buffalo_power_2</v>
@@ -1389,11 +1239,6 @@
             <v>Buffalo Power 2: Hold and Win</v>
           </cell>
         </row>
-        <row r="35">
-          <cell r="E35" t="str">
-            <v>https://img.dyn123.com/images/slot-images/PS/buffalopower2holdandwin.png</v>
-          </cell>
-        </row>
         <row r="36">
           <cell r="A36" t="str">
             <v>arizona_heist</v>
@@ -1405,11 +1250,6 @@
             <v>Arizona Heist: Hold and Win</v>
           </cell>
         </row>
-        <row r="36">
-          <cell r="E36" t="str">
-            <v>https://img.dyn123.com/images/slot-images/PS/arizonaheistholdandwin.png</v>
-          </cell>
-        </row>
         <row r="37">
           <cell r="A37" t="str">
             <v>3_magic_lamps</v>
@@ -1421,11 +1261,6 @@
             <v>3 Magic Lamps: Hold and Win</v>
           </cell>
         </row>
-        <row r="37">
-          <cell r="E37" t="str">
-            <v>https://img.dyn123.com/images/slot-images/PS/3magiclampsholdandwin.png</v>
-          </cell>
-        </row>
         <row r="38">
           <cell r="A38" t="str">
             <v>3carts_of_gold</v>
@@ -1437,11 +1272,6 @@
             <v>3 Carts of Gold: Hold and Win</v>
           </cell>
         </row>
-        <row r="38">
-          <cell r="E38" t="str">
-            <v>https://img.dyn123.com/images/slot-images/PS/3cartsofgoldholdandwin.png</v>
-          </cell>
-        </row>
         <row r="39">
           <cell r="A39" t="str">
             <v>3pots_riches</v>
@@ -1453,11 +1283,6 @@
             <v>3 Pots Riches: Hold and Win</v>
           </cell>
         </row>
-        <row r="39">
-          <cell r="E39" t="str">
-            <v>https://img.dyn123.com/images/slot-images/PS/3potsrichesholdandwin.png</v>
-          </cell>
-        </row>
         <row r="40">
           <cell r="A40" t="str">
             <v>legend_of_cleopatra_megaways</v>
@@ -1469,11 +1294,6 @@
             <v>Legend of Cleopatra Megaways™</v>
           </cell>
         </row>
-        <row r="40">
-          <cell r="E40" t="str">
-            <v>https://img.dyn123.com/images/slot-images/PS/legendofcleopatramegaways.png</v>
-          </cell>
-        </row>
         <row r="41">
           <cell r="A41" t="str">
             <v>wolf_power_mega</v>
@@ -1485,11 +1305,6 @@
             <v>Wolf Power Megaways™</v>
           </cell>
         </row>
-        <row r="41">
-          <cell r="E41" t="str">
-            <v>https://img.dyn123.com/images/slot-images/PS/wolfpowermegaways.png</v>
-          </cell>
-        </row>
         <row r="42">
           <cell r="A42" t="str">
             <v>buffalo_megaways</v>
@@ -1501,11 +1316,6 @@
             <v>Buffalo Power Megaways™</v>
           </cell>
         </row>
-        <row r="42">
-          <cell r="E42" t="str">
-            <v>https://img.dyn123.com/images/slot-images/PS/buffalopowermegaways.png</v>
-          </cell>
-        </row>
         <row r="43">
           <cell r="A43" t="str">
             <v>treasures_fire</v>
@@ -1517,11 +1327,6 @@
             <v>Treasures of Fire: Scatter Pays</v>
           </cell>
         </row>
-        <row r="43">
-          <cell r="E43" t="str">
-            <v>https://img.dyn123.com/images/slot-images/PS/treasuresoffirescatterpays.png</v>
-          </cell>
-        </row>
         <row r="44">
           <cell r="A44" t="str">
             <v>book_of_gold_multichance</v>
@@ -1533,11 +1338,6 @@
             <v>Book of Gold: Multichance</v>
           </cell>
         </row>
-        <row r="44">
-          <cell r="E44" t="str">
-            <v>https://img.dyn123.com/images/slot-images/PS/bookofgoldmultichance.png</v>
-          </cell>
-        </row>
         <row r="45">
           <cell r="A45" t="str">
             <v>book_del_sol</v>
@@ -1549,11 +1349,6 @@
             <v>Book del Sol: Multiplier</v>
           </cell>
         </row>
-        <row r="45">
-          <cell r="E45" t="str">
-            <v>https://img.dyn123.com/images/slot-images/PS/bookdelsolmultiplier.png</v>
-          </cell>
-        </row>
         <row r="46">
           <cell r="A46" t="str">
             <v>wolf_power</v>
@@ -1565,11 +1360,6 @@
             <v>Wolf Power: Hold and Win</v>
           </cell>
         </row>
-        <row r="46">
-          <cell r="E46" t="str">
-            <v>https://img.dyn123.com/images/slot-images/PS/wolfpowerholdandwin.png</v>
-          </cell>
-        </row>
         <row r="47">
           <cell r="A47" t="str">
             <v>divine_dragon</v>
@@ -1581,11 +1371,6 @@
             <v>Divine Dragon: Hold and Win</v>
           </cell>
         </row>
-        <row r="47">
-          <cell r="E47" t="str">
-            <v>https://img.dyn123.com/images/slot-images/PS/divinedragonholdandwin.png</v>
-          </cell>
-        </row>
         <row r="48">
           <cell r="A48" t="str">
             <v>diamond_fort</v>
@@ -1597,11 +1382,6 @@
             <v>Diamond Fortunator: Hold and Win</v>
           </cell>
         </row>
-        <row r="48">
-          <cell r="E48" t="str">
-            <v>https://img.dyn123.com/images/slot-images/PS/diamondfortunatorholdandwin.png</v>
-          </cell>
-        </row>
         <row r="49">
           <cell r="A49" t="str">
             <v>royal_coins_2</v>
@@ -1613,11 +1393,6 @@
             <v>Royal Coins 2: Hold and Win</v>
           </cell>
         </row>
-        <row r="49">
-          <cell r="E49" t="str">
-            <v>https://img.dyn123.com/images/slot-images/PS/royalcoins2holdandwin.png</v>
-          </cell>
-        </row>
         <row r="50">
           <cell r="A50" t="str">
             <v>ruby_hit</v>
@@ -1629,11 +1404,6 @@
             <v>Ruby Hit: Hold and Win</v>
           </cell>
         </row>
-        <row r="50">
-          <cell r="E50" t="str">
-            <v>https://img.dyn123.com/images/slot-images/PS/rubyhitholdandwin.png</v>
-          </cell>
-        </row>
         <row r="51">
           <cell r="A51" t="str">
             <v>jokers_coins</v>
@@ -1645,11 +1415,6 @@
             <v>Joker's Coins: Hold and Win</v>
           </cell>
         </row>
-        <row r="51">
-          <cell r="E51" t="str">
-            <v>https://img.dyn123.com/images/slot-images/PS/jokerscoinsholdandwin.png</v>
-          </cell>
-        </row>
         <row r="52">
           <cell r="A52" t="str">
             <v>eagle_power</v>
@@ -1661,11 +1426,6 @@
             <v>Eagle Power: Hold and Win</v>
           </cell>
         </row>
-        <row r="52">
-          <cell r="E52" t="str">
-            <v>https://img.dyn123.com/images/slot-images/PS/eaglepowerholdandwin.png</v>
-          </cell>
-        </row>
         <row r="53">
           <cell r="A53" t="str">
             <v>royal_coins</v>
@@ -1677,11 +1437,6 @@
             <v>Royal Coins: Hold and Win</v>
           </cell>
         </row>
-        <row r="53">
-          <cell r="E53" t="str">
-            <v>https://img.dyn123.com/images/slot-images/PS/royalcoinsholdandwin.png</v>
-          </cell>
-        </row>
         <row r="54">
           <cell r="A54" t="str">
             <v>sunny_fruits</v>
@@ -1693,11 +1448,6 @@
             <v>Sunny Fruits: Hold and Win</v>
           </cell>
         </row>
-        <row r="54">
-          <cell r="E54" t="str">
-            <v>https://img.dyn123.com/images/slot-images/PS/sunnyfruitsholdandwin.png</v>
-          </cell>
-        </row>
         <row r="55">
           <cell r="A55" t="str">
             <v>hot_coins</v>
@@ -1709,11 +1459,6 @@
             <v>Hot Coins: Hold and Win</v>
           </cell>
         </row>
-        <row r="55">
-          <cell r="E55" t="str">
-            <v>https://img.dyn123.com/images/slot-images/PS/hotcoinsholdandwin.png</v>
-          </cell>
-        </row>
         <row r="56">
           <cell r="A56" t="str">
             <v>buffalo_power</v>
@@ -1725,11 +1470,6 @@
             <v>Buffalo Power: Hold and Win</v>
           </cell>
         </row>
-        <row r="56">
-          <cell r="E56" t="str">
-            <v>https://img.dyn123.com/images/slot-images/PS/buffalopowerholdandwin.png</v>
-          </cell>
-        </row>
         <row r="57">
           <cell r="A57" t="str">
             <v>diamond_wins</v>
@@ -1741,11 +1481,6 @@
             <v>Diamond Wins: Hold and Win</v>
           </cell>
         </row>
-        <row r="57">
-          <cell r="E57" t="str">
-            <v>https://img.dyn123.com/images/slot-images/PS/diamondwinsholdandwin.png</v>
-          </cell>
-        </row>
         <row r="58">
           <cell r="A58" t="str">
             <v>luxor_gold</v>
@@ -1757,11 +1492,6 @@
             <v>Luxor Gold: Hold and Win</v>
           </cell>
         </row>
-        <row r="58">
-          <cell r="E58" t="str">
-            <v>https://img.dyn123.com/images/slot-images/PS/luxorgoldholdandwin.png</v>
-          </cell>
-        </row>
         <row r="59">
           <cell r="A59" t="str">
             <v>lion_gems</v>
@@ -1773,11 +1503,6 @@
             <v>Lion Gems: Hold and Win</v>
           </cell>
         </row>
-        <row r="59">
-          <cell r="E59" t="str">
-            <v>https://img.dyn123.com/images/slot-images/PS/liongemsholdandwin.png</v>
-          </cell>
-        </row>
         <row r="60">
           <cell r="A60" t="str">
             <v>fruits_and_jokers_100</v>
@@ -1789,11 +1514,6 @@
             <v>Fruits &amp; Jokers: 100 Lines</v>
           </cell>
         </row>
-        <row r="60">
-          <cell r="E60" t="str">
-            <v>https://img.dyn123.com/images/slot-images/PS/fruitsjokers100lines.png</v>
-          </cell>
-        </row>
         <row r="61">
           <cell r="A61" t="str">
             <v>imperial_fruits_5</v>
@@ -1805,11 +1525,6 @@
             <v>Imperial Fruits: 5 Lines</v>
           </cell>
         </row>
-        <row r="61">
-          <cell r="E61" t="str">
-            <v>https://img.dyn123.com/images/slot-images/PS/imperialfruits5lines.png</v>
-          </cell>
-        </row>
         <row r="62">
           <cell r="A62" t="str">
             <v>joker_expand</v>
@@ -1821,11 +1536,6 @@
             <v>Joker Expand: 5 Lines</v>
           </cell>
         </row>
-        <row r="62">
-          <cell r="E62" t="str">
-            <v>https://img.dyn123.com/images/slot-images/PS/jokerexpand5lines.png</v>
-          </cell>
-        </row>
         <row r="63">
           <cell r="A63" t="str">
             <v>legend_of_cleopatra</v>
@@ -1837,11 +1547,6 @@
             <v>Legend of Cleopatra</v>
           </cell>
         </row>
-        <row r="63">
-          <cell r="E63" t="str">
-            <v>https://img.dyn123.com/images/slot-images/PS/legendofcleopatra.png</v>
-          </cell>
-        </row>
         <row r="64">
           <cell r="A64" t="str">
             <v>sevens_n_fruits</v>
@@ -1853,11 +1558,6 @@
             <v>Sevens&amp;Fruits</v>
           </cell>
         </row>
-        <row r="64">
-          <cell r="E64" t="str">
-            <v>https://img.dyn123.com/images/slot-images/PS/sevensfruits.png</v>
-          </cell>
-        </row>
         <row r="65">
           <cell r="A65" t="str">
             <v>sevens_n_fruits_20</v>
@@ -1869,11 +1569,6 @@
             <v>Sevens&amp;Fruits: 20 Lines</v>
           </cell>
         </row>
-        <row r="65">
-          <cell r="E65" t="str">
-            <v>https://img.dyn123.com/images/slot-images/PS/sevensfruits20lines.png</v>
-          </cell>
-        </row>
         <row r="66">
           <cell r="A66" t="str">
             <v>100_joker_staxx</v>
@@ -1885,11 +1580,6 @@
             <v>100 Joker Staxx</v>
           </cell>
         </row>
-        <row r="66">
-          <cell r="E66" t="str">
-            <v>https://img.dyn123.com/images/slot-images/PS/100jokerstaxx.png</v>
-          </cell>
-        </row>
         <row r="67">
           <cell r="A67" t="str">
             <v>3_fruits_win_10</v>
@@ -1901,11 +1591,6 @@
             <v>3 Fruits Win: 10 Lines</v>
           </cell>
         </row>
-        <row r="67">
-          <cell r="E67" t="str">
-            <v>https://img.dyn123.com/images/slot-images/PS/3fruitswin10lines.png</v>
-          </cell>
-        </row>
         <row r="68">
           <cell r="A68" t="str">
             <v>5_fortunator</v>
@@ -1917,11 +1602,6 @@
             <v>5 Fortunator</v>
           </cell>
         </row>
-        <row r="68">
-          <cell r="E68" t="str">
-            <v>https://img.dyn123.com/images/slot-images/PS/5fortunator.png</v>
-          </cell>
-        </row>
         <row r="69">
           <cell r="A69" t="str">
             <v>burning_wins</v>
@@ -1933,11 +1613,6 @@
             <v>Burning Wins: classic 5 lines</v>
           </cell>
         </row>
-        <row r="69">
-          <cell r="E69" t="str">
-            <v>https://img.dyn123.com/images/slot-images/PS/burningwinsclassic5lines.png</v>
-          </cell>
-        </row>
         <row r="70">
           <cell r="A70" t="str">
             <v>fruits_and_jokers_40</v>
@@ -1949,11 +1624,6 @@
             <v>Fruits &amp; Jokers: 40 Lines</v>
           </cell>
         </row>
-        <row r="70">
-          <cell r="E70" t="str">
-            <v>https://img.dyn123.com/images/slot-images/PS/fruitsjokers40lines.png</v>
-          </cell>
-        </row>
         <row r="71">
           <cell r="A71" t="str">
             <v>fruits_and_jokers_20</v>
@@ -1965,11 +1635,6 @@
             <v>Fruits &amp; Jokers: 20 lines</v>
           </cell>
         </row>
-        <row r="71">
-          <cell r="E71" t="str">
-            <v>https://img.dyn123.com/images/slot-images/PS/fruitsjokers20lines.png</v>
-          </cell>
-        </row>
         <row r="72">
           <cell r="A72" t="str">
             <v>book_of_gold_classic</v>
@@ -1981,11 +1646,6 @@
             <v>Book of Gold: Classic</v>
           </cell>
         </row>
-        <row r="72">
-          <cell r="E72" t="str">
-            <v>https://img.dyn123.com/images/slot-images/PS/bookofgoldclassic.png</v>
-          </cell>
-        </row>
         <row r="73">
           <cell r="A73" t="str">
             <v>super_burning_wins</v>
@@ -1997,11 +1657,6 @@
             <v>Super Burning Wins</v>
           </cell>
         </row>
-        <row r="73">
-          <cell r="E73" t="str">
-            <v>https://img.dyn123.com/images/slot-images/PS/superburningwins.png</v>
-          </cell>
-        </row>
         <row r="74">
           <cell r="A74" t="str">
             <v>5_super_sevens_n_fruits</v>
@@ -2013,11 +1668,6 @@
             <v>5 Super Sevens &amp; Fruits</v>
           </cell>
         </row>
-        <row r="74">
-          <cell r="E74" t="str">
-            <v>https://img.dyn123.com/images/slot-images/PS/5supersevenandfruits.png</v>
-          </cell>
-        </row>
         <row r="75">
           <cell r="A75" t="str">
             <v>hot_burning_wins</v>
@@ -2029,11 +1679,6 @@
             <v>Hot Burning Wins</v>
           </cell>
         </row>
-        <row r="75">
-          <cell r="E75" t="str">
-            <v>https://img.dyn123.com/images/slot-images/PS/hotburningwins.png</v>
-          </cell>
-        </row>
         <row r="76">
           <cell r="A76" t="str">
             <v>solar_temple</v>
@@ -2045,11 +1690,6 @@
             <v>Solar Temple</v>
           </cell>
         </row>
-        <row r="76">
-          <cell r="E76" t="str">
-            <v>https://img.dyn123.com/images/slot-images/PS/solartemple.png</v>
-          </cell>
-        </row>
         <row r="77">
           <cell r="A77" t="str">
             <v>imperial_fruits_100</v>
@@ -2061,11 +1701,6 @@
             <v>Imperial Fruits: 100 Lines</v>
           </cell>
         </row>
-        <row r="77">
-          <cell r="E77" t="str">
-            <v>https://img.dyn123.com/images/slot-images/PS/imperialfruits100lines.png</v>
-          </cell>
-        </row>
         <row r="78">
           <cell r="A78" t="str">
             <v>solar_queen</v>
@@ -2077,11 +1712,6 @@
             <v>Solar Queen</v>
           </cell>
         </row>
-        <row r="78">
-          <cell r="E78" t="str">
-            <v>https://img.dyn123.com/images/slot-images/PS/solarqueen.png</v>
-          </cell>
-        </row>
         <row r="79">
           <cell r="A79" t="str">
             <v>burning_fort</v>
@@ -2093,11 +1723,6 @@
             <v>Burning Fortunator</v>
           </cell>
         </row>
-        <row r="79">
-          <cell r="E79" t="str">
-            <v>https://img.dyn123.com/images/slot-images/PS/burningfortunator.png</v>
-          </cell>
-        </row>
         <row r="80">
           <cell r="A80" t="str">
             <v>solar_king</v>
@@ -2109,11 +1734,6 @@
             <v>Solar King</v>
           </cell>
         </row>
-        <row r="80">
-          <cell r="E80" t="str">
-            <v>https://img.dyn123.com/images/slot-images/PS/solarking.png</v>
-          </cell>
-        </row>
         <row r="81">
           <cell r="A81" t="str">
             <v>rise_of_egypt</v>
@@ -2125,11 +1745,6 @@
             <v>Rise of Egypt</v>
           </cell>
         </row>
-        <row r="81">
-          <cell r="E81" t="str">
-            <v>https://img.dyn123.com/images/slot-images/PS/riseofegypt.png</v>
-          </cell>
-        </row>
         <row r="82">
           <cell r="A82" t="str">
             <v>crystal_land</v>
@@ -2141,11 +1756,6 @@
             <v>Crystal Land</v>
           </cell>
         </row>
-        <row r="82">
-          <cell r="E82" t="str">
-            <v>https://img.dyn123.com/images/slot-images/PS/crystalland.png</v>
-          </cell>
-        </row>
         <row r="83">
           <cell r="A83" t="str">
             <v>book_of_gold</v>
@@ -2157,11 +1767,6 @@
             <v>Book of Gold: Double Chance</v>
           </cell>
         </row>
-        <row r="83">
-          <cell r="E83" t="str">
-            <v>https://img.dyn123.com/images/slot-images/PS/bookofgolddoublechance.png</v>
-          </cell>
-        </row>
         <row r="84">
           <cell r="A84" t="str">
             <v>buffalo_xmas</v>
@@ -2173,11 +1778,6 @@
             <v>Buffalo Power: Christmas</v>
           </cell>
         </row>
-        <row r="84">
-          <cell r="E84" t="str">
-            <v>https://img.dyn123.com/images/slot-images/PS/buffalopowerchristmas.png</v>
-          </cell>
-        </row>
         <row r="85">
           <cell r="A85" t="str">
             <v>burning_wins_x2</v>
@@ -2187,11 +1787,6 @@
           </cell>
           <cell r="C85" t="str">
             <v>Burning Wins x2</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="E85" t="str">
-            <v>https://img.dyn123.com/images/slot-images/PS/burningwinsx2.png</v>
           </cell>
         </row>
       </sheetData>
@@ -2583,7 +2178,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -2648,14 +2243,13 @@
         <f t="array" ref="H2">IFERROR(INDEX([1]gameRank!B:B,MATCH(A2,[1]gameRank!A:A,0)),"")</f>
         <v/>
       </c>
-      <c r="I2" t="str" cm="1">
-        <f t="array" ref="I2">IFERROR(INDEX([1]gameList!E:E,MATCH(A2,[1]gameList!A:A,0)),"")</f>
-        <v>https://img.dyn123.com/images/slot-images/PS/25cookieshitthebonus.png</v>
+      <c r="I2" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" ht="15.75" spans="1:9">
       <c r="A3" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="3" t="str" cm="1">
         <f t="array" ref="B3">VLOOKUP(TRIM(TEXT(A3,"0")),TRIM([1]gameList!A:B),2,FALSE)</f>
@@ -2669,14 +2263,13 @@
         <f t="array" ref="H3">IFERROR(INDEX([1]gameRank!B:B,MATCH(A3,[1]gameRank!A:A,0)),"")</f>
         <v/>
       </c>
-      <c r="I3" t="str" cm="1">
-        <f t="array" ref="I3">IFERROR(INDEX([1]gameList!E:E,MATCH(A3,[1]gameList!A:A,0)),"")</f>
-        <v>https://img.dyn123.com/images/slot-images/PS/wolflandholdandwin.png</v>
+      <c r="I3" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:9">
       <c r="A4" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4" s="3" t="str" cm="1">
         <f t="array" ref="B4">VLOOKUP(TRIM(TEXT(A4,"0")),TRIM([1]gameList!A:B),2,FALSE)</f>
@@ -2690,14 +2283,13 @@
         <f t="array" ref="H4">IFERROR(INDEX([1]gameRank!B:B,MATCH(A4,[1]gameRank!A:A,0)),"")</f>
         <v/>
       </c>
-      <c r="I4" t="str" cm="1">
-        <f t="array" ref="I4">IFERROR(INDEX([1]gameList!E:E,MATCH(A4,[1]gameList!A:A,0)),"")</f>
-        <v>https://img.dyn123.com/images/slot-images/PS/sherwoodcoinsholdandwin.png</v>
+      <c r="I4" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" ht="15.75" spans="1:9">
       <c r="A5" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B5" s="3" t="str" cm="1">
         <f t="array" ref="B5">VLOOKUP(TRIM(TEXT(A5,"0")),TRIM([1]gameList!A:B),2,FALSE)</f>
@@ -2711,14 +2303,13 @@
         <f t="array" ref="H5">IFERROR(INDEX([1]gameRank!B:B,MATCH(A5,[1]gameRank!A:A,0)),"")</f>
         <v/>
       </c>
-      <c r="I5" t="str" cm="1">
-        <f t="array" ref="I5">IFERROR(INDEX([1]gameList!E:E,MATCH(A5,[1]gameList!A:A,0)),"")</f>
-        <v>https://img.dyn123.com/images/slot-images/PS/merrygiftmasholdandwin.png</v>
+      <c r="I5" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" ht="15.75" spans="1:9">
       <c r="A6" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B6" s="3" t="str" cm="1">
         <f t="array" ref="B6">VLOOKUP(TRIM(TEXT(A6,"0")),TRIM([1]gameList!A:B),2,FALSE)</f>
@@ -2732,12 +2323,18 @@
         <f t="array" ref="H6">IFERROR(INDEX([1]gameRank!B:B,MATCH(A6,[1]gameRank!A:A,0)),"")</f>
         <v/>
       </c>
-      <c r="I6" t="str" cm="1">
-        <f t="array" ref="I6">IFERROR(INDEX([1]gameList!E:E,MATCH(A6,[1]gameList!A:A,0)),"")</f>
-        <v>https://img.dyn123.com/images/slot-images/PS/mammothpeakholdandwin.png</v>
+      <c r="I6" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1" display="https://img.dyn123.com/images/slot-images/PS/25cookieshitthebonus.png"/>
+    <hyperlink ref="I3" r:id="rId2" display="https://img.dyn123.com/images/slot-images/PS/wolflandholdandwin.png"/>
+    <hyperlink ref="I4" r:id="rId3" display="https://img.dyn123.com/images/slot-images/PS/sherwoodcoinsholdandwin.png"/>
+    <hyperlink ref="I5" r:id="rId4" display="https://img.dyn123.com/images/slot-images/PS/merrygiftmasholdandwin.png"/>
+    <hyperlink ref="I6" r:id="rId5" display="https://img.dyn123.com/images/slot-images/PS/mammothpeakholdandwin.png"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
